--- a/BackTest/2020-01-24 BackTest FCT.xlsx
+++ b/BackTest/2020-01-24 BackTest FCT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1672,14 +1672,10 @@
         <v>-11730991.65987617</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
-      </c>
-      <c r="I39" t="n">
-        <v>28</v>
-      </c>
-      <c r="J39" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
@@ -1712,14 +1708,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>28</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1751,14 +1741,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>28</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1790,14 +1774,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>28</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1826,19 +1804,11 @@
         <v>-11729863.80027617</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="n">
-        <v>28</v>
-      </c>
-      <c r="J43" t="n">
-        <v>28</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1867,19 +1837,11 @@
         <v>-11729826.00087617</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="n">
-        <v>28.22</v>
-      </c>
-      <c r="J44" t="n">
-        <v>28</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1908,19 +1870,11 @@
         <v>-11730838.70087617</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="J45" t="n">
-        <v>28</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1949,19 +1903,11 @@
         <v>-11730838.70087617</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="J46" t="n">
-        <v>28</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1993,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>28</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2032,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>28</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2071,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>28</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2110,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>28</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2149,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>28</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2188,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>28</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2224,19 +2134,11 @@
         <v>-11889909.54717617</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
-      </c>
-      <c r="I53" t="n">
-        <v>28</v>
-      </c>
-      <c r="J53" t="n">
-        <v>28</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2265,19 +2167,11 @@
         <v>-12255368.26187617</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
-      </c>
-      <c r="I54" t="n">
-        <v>28</v>
-      </c>
-      <c r="J54" t="n">
-        <v>28</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2306,19 +2200,11 @@
         <v>-12255124.66187617</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
-      </c>
-      <c r="I55" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="J55" t="n">
-        <v>28</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2347,19 +2233,11 @@
         <v>-12254897.56187617</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
-      </c>
-      <c r="I56" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="J56" t="n">
-        <v>28</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2388,19 +2266,11 @@
         <v>-12254897.56187617</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
-      </c>
-      <c r="I57" t="n">
-        <v>28</v>
-      </c>
-      <c r="J57" t="n">
-        <v>28</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2429,19 +2299,11 @@
         <v>-12254897.56187617</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
-      </c>
-      <c r="I58" t="n">
-        <v>28</v>
-      </c>
-      <c r="J58" t="n">
-        <v>28</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2470,19 +2332,11 @@
         <v>-12234505.84044081</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
-      </c>
-      <c r="I59" t="n">
-        <v>28</v>
-      </c>
-      <c r="J59" t="n">
-        <v>28</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2511,19 +2365,15 @@
         <v>-12234739.54044081</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>28.59</v>
       </c>
       <c r="J60" t="n">
-        <v>28</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>28.59</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2552,17 +2402,17 @@
         <v>-12234739.54044081</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>28</v>
       </c>
       <c r="J61" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L61" t="n">
@@ -2593,17 +2443,17 @@
         <v>-12234739.54044081</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>28</v>
       </c>
       <c r="J62" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L62" t="n">
@@ -2634,17 +2484,17 @@
         <v>-12233626.74044081</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>28</v>
       </c>
       <c r="J63" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L63" t="n">
@@ -2675,13 +2525,13 @@
         <v>-12171660.52174081</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>28.1</v>
       </c>
       <c r="J64" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2716,13 +2566,11 @@
         <v>-12170660.52174081</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
-      </c>
-      <c r="I65" t="n">
-        <v>28.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2757,13 +2605,11 @@
         <v>-12174565.05454081</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
-      </c>
-      <c r="I66" t="n">
-        <v>28.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2798,13 +2644,11 @@
         <v>-12170565.05454081</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
-      </c>
-      <c r="I67" t="n">
-        <v>28.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2839,13 +2683,11 @@
         <v>-12246796.38204081</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
-      </c>
-      <c r="I68" t="n">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -2884,7 +2726,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -2923,7 +2765,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -2962,7 +2804,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3001,7 +2843,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3040,7 +2882,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3079,7 +2921,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3118,7 +2960,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3157,7 +2999,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3196,7 +3038,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3235,7 +3077,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3274,7 +3116,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3313,7 +3155,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3352,7 +3194,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3391,7 +3233,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3430,7 +3272,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3469,7 +3311,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3508,7 +3350,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3547,7 +3389,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3586,7 +3428,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3625,7 +3467,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3664,7 +3506,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3703,7 +3545,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3742,7 +3584,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3781,7 +3623,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3820,7 +3662,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3859,7 +3701,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3898,7 +3740,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3937,7 +3779,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -3976,7 +3818,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4015,7 +3857,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4054,7 +3896,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4093,7 +3935,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4132,7 +3974,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4171,7 +4013,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4210,7 +4052,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4249,7 +4091,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4288,7 +4130,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4327,7 +4169,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4366,7 +4208,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4405,7 +4247,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4444,7 +4286,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4483,7 +4325,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4522,7 +4364,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4561,7 +4403,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4600,7 +4442,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4639,7 +4481,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4678,7 +4520,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4717,7 +4559,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4756,7 +4598,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4795,7 +4637,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4834,7 +4676,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4873,7 +4715,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4912,7 +4754,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4951,7 +4793,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4990,7 +4832,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -5029,7 +4871,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -5068,7 +4910,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5107,7 +4949,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5146,7 +4988,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5185,7 +5027,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5224,7 +5066,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5263,7 +5105,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5302,7 +5144,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5341,7 +5183,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5380,7 +5222,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5419,7 +5261,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5458,7 +5300,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5497,7 +5339,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5536,7 +5378,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5575,7 +5417,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5614,7 +5456,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5653,7 +5495,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5692,7 +5534,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5731,7 +5573,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5770,7 +5612,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5809,7 +5651,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5848,7 +5690,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5887,7 +5729,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5926,7 +5768,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5965,7 +5807,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -6004,7 +5846,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -6043,7 +5885,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -6082,7 +5924,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -6121,7 +5963,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -6160,7 +6002,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6199,7 +6041,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6238,7 +6080,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6277,7 +6119,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6316,7 +6158,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6355,7 +6197,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6394,7 +6236,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6433,7 +6275,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6472,7 +6314,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6511,7 +6353,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6550,7 +6392,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6589,7 +6431,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6628,7 +6470,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6667,7 +6509,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6706,7 +6548,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6745,7 +6587,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6784,7 +6626,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6823,7 +6665,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6862,7 +6704,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6901,7 +6743,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6940,7 +6782,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6979,7 +6821,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -7018,7 +6860,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -7057,7 +6899,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -7096,7 +6938,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -7135,7 +6977,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -7174,7 +7016,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -7213,7 +7055,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -7252,7 +7094,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -7291,7 +7133,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -7330,7 +7172,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -7369,7 +7211,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -7408,7 +7250,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -7447,7 +7289,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -7486,7 +7328,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7525,7 +7367,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7564,7 +7406,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7603,7 +7445,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7642,7 +7484,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7681,7 +7523,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7720,7 +7562,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7759,7 +7601,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7798,7 +7640,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7837,7 +7679,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7876,7 +7718,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7915,7 +7757,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7954,7 +7796,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7993,7 +7835,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -8032,7 +7874,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -8071,7 +7913,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -8110,7 +7952,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -8149,7 +7991,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -8188,7 +8030,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -8227,7 +8069,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -8266,7 +8108,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -8305,7 +8147,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -8344,7 +8186,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -8383,7 +8225,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -8422,7 +8264,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -8461,7 +8303,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -8500,7 +8342,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -8539,7 +8381,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -8578,7 +8420,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -8617,7 +8459,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -8656,7 +8498,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -8695,7 +8537,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -8734,7 +8576,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -8773,7 +8615,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -8812,7 +8654,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -8851,7 +8693,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -8890,7 +8732,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -8929,7 +8771,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -8968,7 +8810,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -9007,7 +8849,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -9046,7 +8888,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -9085,7 +8927,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -9124,7 +8966,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -9163,7 +9005,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -9202,7 +9044,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -9241,7 +9083,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -9280,7 +9122,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -9319,7 +9161,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -9358,7 +9200,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -9397,7 +9239,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -9436,7 +9278,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -9475,7 +9317,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -9514,7 +9356,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -9553,7 +9395,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -9592,7 +9434,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -9631,7 +9473,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -9670,7 +9512,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -9709,7 +9551,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -9748,7 +9590,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -9787,7 +9629,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -9826,7 +9668,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -9865,7 +9707,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -9904,7 +9746,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -9943,7 +9785,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -9982,7 +9824,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -10021,7 +9863,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -10060,7 +9902,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -10099,7 +9941,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -10138,7 +9980,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -10177,7 +10019,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -10216,7 +10058,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -10255,7 +10097,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -10294,7 +10136,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -10333,7 +10175,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -10372,7 +10214,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -10411,7 +10253,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -10446,13 +10288,11 @@
         <v>-15155664.58334081</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
-      </c>
-      <c r="I263" t="n">
-        <v>28.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -10491,7 +10331,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -10530,7 +10370,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -10569,7 +10409,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -10608,7 +10448,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -10647,7 +10487,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -10686,7 +10526,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -10725,7 +10565,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -10764,7 +10604,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -10803,7 +10643,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -10842,7 +10682,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -10881,7 +10721,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -10920,7 +10760,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -10959,7 +10799,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -10998,7 +10838,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -11037,7 +10877,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -11076,7 +10916,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -11115,7 +10955,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -11154,7 +10994,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -11193,7 +11033,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -11232,7 +11072,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -11271,7 +11111,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -11310,7 +11150,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -11349,7 +11189,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -11388,7 +11228,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -11427,7 +11267,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -11466,7 +11306,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -11505,7 +11345,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -11544,7 +11384,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -11583,7 +11423,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -11622,7 +11462,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -11661,7 +11501,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -11700,7 +11540,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -11739,7 +11579,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -11778,7 +11618,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -11817,7 +11657,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -11856,7 +11696,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -11895,7 +11735,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -11934,7 +11774,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -11973,7 +11813,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -12012,7 +11852,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -12051,7 +11891,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -12090,7 +11930,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -12129,7 +11969,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -12168,7 +12008,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -12207,7 +12047,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -12246,7 +12086,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -12285,7 +12125,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -12324,7 +12164,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -12363,7 +12203,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -12402,7 +12242,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -12441,7 +12281,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -12480,7 +12320,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -12519,7 +12359,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -12558,7 +12398,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -12593,23 +12433,21 @@
         <v>-25507843.01513062</v>
       </c>
       <c r="H318" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>28</v>
+        <v>28.59</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L318" t="n">
-        <v>1.127142857142857</v>
-      </c>
-      <c r="M318" t="n">
-        <v>1.062409812409812</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -12637,8 +12475,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>28.59</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12667,11 +12511,17 @@
         <v>-25167552.85650997</v>
       </c>
       <c r="H320" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>28.59</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12700,11 +12550,17 @@
         <v>-24766550.92064152</v>
       </c>
       <c r="H321" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>28.59</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12733,11 +12589,17 @@
         <v>-24621576.46291655</v>
       </c>
       <c r="H322" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>28.59</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12769,8 +12631,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>28.59</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12799,11 +12667,17 @@
         <v>-24342489.97290653</v>
       </c>
       <c r="H324" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>28.59</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12832,11 +12706,17 @@
         <v>-24977732.75690653</v>
       </c>
       <c r="H325" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>28.59</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12865,11 +12745,17 @@
         <v>-25139977.65150653</v>
       </c>
       <c r="H326" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>28.59</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12898,15 +12784,23 @@
         <v>-25358965.05860653</v>
       </c>
       <c r="H327" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>28.59</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L327" t="n">
-        <v>1</v>
-      </c>
-      <c r="M327" t="inlineStr"/>
+        <v>1.155545645330535</v>
+      </c>
+      <c r="M327" t="n">
+        <v>1.078754578754579</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -12931,7 +12825,7 @@
         <v>-30244752.35300653</v>
       </c>
       <c r="H328" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12964,7 +12858,7 @@
         <v>-32874942.59050653</v>
       </c>
       <c r="H329" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12997,7 +12891,7 @@
         <v>-32896561.53520653</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -13030,7 +12924,7 @@
         <v>-33249101.65370653</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -13063,7 +12957,7 @@
         <v>-33029165.58436456</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -13096,7 +12990,7 @@
         <v>-33089054.28446456</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -13129,7 +13023,7 @@
         <v>-32708327.76606456</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -13162,7 +13056,7 @@
         <v>-32816841.08116456</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -13195,7 +13089,7 @@
         <v>-32685086.31672291</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -13228,7 +13122,7 @@
         <v>-32710318.36832291</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -13261,7 +13155,7 @@
         <v>-32777914.383942</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -13294,7 +13188,7 @@
         <v>-32795727.87822116</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -13327,7 +13221,7 @@
         <v>-32795727.87822116</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -13360,7 +13254,7 @@
         <v>-32795727.87822116</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -13393,7 +13287,7 @@
         <v>-32771650.92315131</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -13426,7 +13320,7 @@
         <v>-32633361.30916137</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -13459,7 +13353,7 @@
         <v>-32643217.98746137</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -13492,7 +13386,7 @@
         <v>-32640699.05846137</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -13525,7 +13419,7 @@
         <v>-32640699.05846137</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -13558,7 +13452,7 @@
         <v>-32685772.20686137</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -13591,7 +13485,7 @@
         <v>-32800047.99619377</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -13624,7 +13518,7 @@
         <v>-32957201.57359377</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13657,7 +13551,7 @@
         <v>-32931002.75949377</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13690,7 +13584,7 @@
         <v>-32973825.62009377</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13723,7 +13617,7 @@
         <v>-32840415.05449377</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -13756,7 +13650,7 @@
         <v>-32839365.95449376</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -13789,7 +13683,7 @@
         <v>-32775810.99579376</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -13822,7 +13716,7 @@
         <v>-32775810.99579376</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13855,7 +13749,7 @@
         <v>-32647280.37029376</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -13888,7 +13782,7 @@
         <v>-32609399.87149376</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13921,7 +13815,7 @@
         <v>-32656735.11039376</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13954,7 +13848,7 @@
         <v>-32602882.39159376</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13987,7 +13881,7 @@
         <v>-36222304.77581829</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -14020,7 +13914,7 @@
         <v>-36256397.72901829</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -14053,7 +13947,7 @@
         <v>-36252600.05491829</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -14119,7 +14013,7 @@
         <v>-36277750.98511829</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -14185,7 +14079,7 @@
         <v>-36182020.85951829</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -14350,7 +14244,7 @@
         <v>-36141738.18201829</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -14449,7 +14343,7 @@
         <v>-35985671.13461828</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -14482,7 +14376,7 @@
         <v>-35986716.33461829</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -14515,7 +14409,7 @@
         <v>-36340302.60271829</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -14548,7 +14442,7 @@
         <v>-36267647.26041829</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -14944,7 +14838,7 @@
         <v>-36495864.26581829</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -14977,7 +14871,7 @@
         <v>-36495864.26581829</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -15109,7 +15003,7 @@
         <v>-36581769.61351828</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -17650,11 +17544,17 @@
         <v>-37294545.74948386</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
-      </c>
-      <c r="I471" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I471" t="n">
+        <v>28.1</v>
+      </c>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17683,11 +17583,17 @@
         <v>-37293346.34948386</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
-      </c>
-      <c r="I472" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I472" t="n">
+        <v>28.1</v>
+      </c>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17716,11 +17622,17 @@
         <v>-37293364.34948386</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
-      </c>
-      <c r="I473" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I473" t="n">
+        <v>28.2</v>
+      </c>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17749,11 +17661,17 @@
         <v>-37266654.45828386</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
-      </c>
-      <c r="I474" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I474" t="n">
+        <v>28.1</v>
+      </c>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17782,11 +17700,17 @@
         <v>-37266654.45828386</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
-      </c>
-      <c r="I475" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I475" t="n">
+        <v>28.2</v>
+      </c>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17815,11 +17739,17 @@
         <v>-37308641.10478386</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
-      </c>
-      <c r="I476" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I476" t="n">
+        <v>28.2</v>
+      </c>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17848,11 +17778,17 @@
         <v>-37308641.10478386</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
-      </c>
-      <c r="I477" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I477" t="n">
+        <v>28.02</v>
+      </c>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17881,11 +17817,17 @@
         <v>-37330035.34618387</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
-      </c>
-      <c r="I478" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I478" t="n">
+        <v>28.02</v>
+      </c>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -17914,11 +17856,17 @@
         <v>-37323017.17678387</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
-      </c>
-      <c r="I479" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I479" t="n">
+        <v>28</v>
+      </c>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17947,7 +17895,7 @@
         <v>-37321895.55418387</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I480" t="n">
         <v>28.1</v>
@@ -17955,7 +17903,7 @@
       <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L480" t="n">
@@ -17986,7 +17934,7 @@
         <v>-37323084.85418387</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I481" t="n">
         <v>28.7</v>
@@ -18025,7 +17973,7 @@
         <v>-37323084.85418387</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I482" t="n">
         <v>28.05</v>
@@ -18064,7 +18012,7 @@
         <v>-37321965.15418386</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I483" t="n">
         <v>28.05</v>
@@ -18103,7 +18051,7 @@
         <v>-37322994.55418386</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I484" t="n">
         <v>28.13</v>
@@ -18142,9 +18090,11 @@
         <v>-37317041.73338386</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
-      </c>
-      <c r="I485" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I485" t="n">
+        <v>28.1</v>
+      </c>
       <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr">
         <is>
@@ -18179,9 +18129,11 @@
         <v>-37318207.33338387</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
-      </c>
-      <c r="I486" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I486" t="n">
+        <v>28.12</v>
+      </c>
       <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr">
         <is>
@@ -18216,9 +18168,11 @@
         <v>-37318207.33338387</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
-      </c>
-      <c r="I487" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I487" t="n">
+        <v>28.11</v>
+      </c>
       <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr">
         <is>
@@ -18253,9 +18207,11 @@
         <v>-37317008.23338386</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
-      </c>
-      <c r="I488" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I488" t="n">
+        <v>28.11</v>
+      </c>
       <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr">
         <is>
@@ -18290,9 +18246,11 @@
         <v>-37317008.23338386</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
-      </c>
-      <c r="I489" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I489" t="n">
+        <v>28.56</v>
+      </c>
       <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr">
         <is>
@@ -21731,9 +21689,11 @@
         <v>-46291856.49478386</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
-      </c>
-      <c r="I582" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I582" t="n">
+        <v>29.28</v>
+      </c>
       <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr">
         <is>
@@ -21768,9 +21728,11 @@
         <v>-46333456.67468386</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
-      </c>
-      <c r="I583" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I583" t="n">
+        <v>28.5</v>
+      </c>
       <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr">
         <is>
@@ -21805,9 +21767,11 @@
         <v>-46320116.16898386</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
-      </c>
-      <c r="I584" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I584" t="n">
+        <v>28.33</v>
+      </c>
       <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr">
         <is>
@@ -21842,9 +21806,11 @@
         <v>-46318814.13048386</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
-      </c>
-      <c r="I585" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I585" t="n">
+        <v>28.4</v>
+      </c>
       <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr">
         <is>
@@ -21879,9 +21845,11 @@
         <v>-46309936.53858386</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
-      </c>
-      <c r="I586" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I586" t="n">
+        <v>28.59</v>
+      </c>
       <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr">
         <is>
@@ -21916,9 +21884,11 @@
         <v>-46305046.27608386</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
-      </c>
-      <c r="I587" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I587" t="n">
+        <v>28.6</v>
+      </c>
       <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr">
         <is>
@@ -21953,9 +21923,11 @@
         <v>-46303757.36158386</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
-      </c>
-      <c r="I588" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I588" t="n">
+        <v>28.96</v>
+      </c>
       <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr">
         <is>
@@ -21990,9 +21962,11 @@
         <v>-46303757.36158386</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
-      </c>
-      <c r="I589" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I589" t="n">
+        <v>29.28</v>
+      </c>
       <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr">
         <is>
@@ -22027,9 +22001,11 @@
         <v>-46319120.46158386</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
-      </c>
-      <c r="I590" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I590" t="n">
+        <v>29.28</v>
+      </c>
       <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr">
         <is>
@@ -22064,9 +22040,11 @@
         <v>-46281120.46158386</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
-      </c>
-      <c r="I591" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I591" t="n">
+        <v>29.27</v>
+      </c>
       <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr">
         <is>
@@ -22101,9 +22079,11 @@
         <v>-46222855.56158386</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
-      </c>
-      <c r="I592" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I592" t="n">
+        <v>29.3</v>
+      </c>
       <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr">
         <is>
@@ -22138,9 +22118,11 @@
         <v>-46224071.06158386</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
-      </c>
-      <c r="I593" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I593" t="n">
+        <v>29.9</v>
+      </c>
       <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr">
         <is>
@@ -22175,9 +22157,11 @@
         <v>-46235292.63808386</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
-      </c>
-      <c r="I594" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I594" t="n">
+        <v>29.8</v>
+      </c>
       <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr">
         <is>
@@ -22212,9 +22196,11 @@
         <v>-51852710.82953488</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
-      </c>
-      <c r="I595" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I595" t="n">
+        <v>29.7</v>
+      </c>
       <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr">
         <is>
@@ -22397,9 +22383,11 @@
         <v>-50105670.15609414</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
-      </c>
-      <c r="I600" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I600" t="n">
+        <v>29.69</v>
+      </c>
       <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr">
         <is>
@@ -22508,9 +22496,11 @@
         <v>-50099462.77887683</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
-      </c>
-      <c r="I603" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I603" t="n">
+        <v>29.8</v>
+      </c>
       <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr">
         <is>
@@ -22545,9 +22535,11 @@
         <v>-50101535.15207683</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
-      </c>
-      <c r="I604" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I604" t="n">
+        <v>29.28</v>
+      </c>
       <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr">
         <is>
@@ -22582,9 +22574,11 @@
         <v>-50101535.15207683</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
-      </c>
-      <c r="I605" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I605" t="n">
+        <v>28.95</v>
+      </c>
       <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr">
         <is>
@@ -22619,9 +22613,11 @@
         <v>-50100220.85207684</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
-      </c>
-      <c r="I606" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I606" t="n">
+        <v>28.95</v>
+      </c>
       <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr">
         <is>
@@ -22656,9 +22652,11 @@
         <v>-50128400.98907684</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
-      </c>
-      <c r="I607" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I607" t="n">
+        <v>29.1</v>
+      </c>
       <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr">
         <is>
@@ -22693,9 +22691,11 @@
         <v>-50281700.01797684</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
-      </c>
-      <c r="I608" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I608" t="n">
+        <v>28.9</v>
+      </c>
       <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr">
         <is>
@@ -22730,9 +22730,11 @@
         <v>-50280338.91797683</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
-      </c>
-      <c r="I609" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I609" t="n">
+        <v>28.2</v>
+      </c>
       <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr">
         <is>
@@ -22767,9 +22769,11 @@
         <v>-50292618.78017683</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
-      </c>
-      <c r="I610" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I610" t="n">
+        <v>28.96</v>
+      </c>
       <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr">
         <is>
@@ -22804,9 +22808,11 @@
         <v>-50210320.48317683</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
-      </c>
-      <c r="I611" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I611" t="n">
+        <v>28.65</v>
+      </c>
       <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr">
         <is>
@@ -22841,9 +22847,11 @@
         <v>-50211751.78317683</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
-      </c>
-      <c r="I612" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I612" t="n">
+        <v>29.2</v>
+      </c>
       <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr">
         <is>
@@ -22878,9 +22886,11 @@
         <v>-50211751.78317683</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
-      </c>
-      <c r="I613" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I613" t="n">
+        <v>28.6</v>
+      </c>
       <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr">
         <is>
@@ -22915,9 +22925,11 @@
         <v>-50209958.02647683</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
-      </c>
-      <c r="I614" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I614" t="n">
+        <v>28.6</v>
+      </c>
       <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr">
         <is>
@@ -22952,9 +22964,11 @@
         <v>-50209958.02647683</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
-      </c>
-      <c r="I615" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I615" t="n">
+        <v>28.96</v>
+      </c>
       <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr">
         <is>
@@ -22989,9 +23003,11 @@
         <v>-50208394.12647683</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
-      </c>
-      <c r="I616" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I616" t="n">
+        <v>28.96</v>
+      </c>
       <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr">
         <is>
@@ -23026,9 +23042,11 @@
         <v>-50338596.27147684</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
-      </c>
-      <c r="I617" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I617" t="n">
+        <v>29.19</v>
+      </c>
       <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr">
         <is>
@@ -23063,9 +23081,11 @@
         <v>-50338596.27147684</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
-      </c>
-      <c r="I618" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I618" t="n">
+        <v>28.96</v>
+      </c>
       <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr">
         <is>
@@ -23100,9 +23120,11 @@
         <v>-50340262.87147684</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
-      </c>
-      <c r="I619" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I619" t="n">
+        <v>28.96</v>
+      </c>
       <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr">
         <is>
@@ -23137,9 +23159,11 @@
         <v>-50264262.87147684</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
-      </c>
-      <c r="I620" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I620" t="n">
+        <v>28.9</v>
+      </c>
       <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr">
         <is>
@@ -23174,9 +23198,11 @@
         <v>-50265917.77147684</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
-      </c>
-      <c r="I621" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I621" t="n">
+        <v>29.1</v>
+      </c>
       <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr">
         <is>
@@ -23211,9 +23237,11 @@
         <v>-50265917.77147684</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
-      </c>
-      <c r="I622" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I622" t="n">
+        <v>29</v>
+      </c>
       <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr">
         <is>
@@ -23248,9 +23276,11 @@
         <v>-50185917.77147684</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
-      </c>
-      <c r="I623" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I623" t="n">
+        <v>29</v>
+      </c>
       <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr">
         <is>
@@ -23285,9 +23315,11 @@
         <v>-50185917.77147684</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
-      </c>
-      <c r="I624" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I624" t="n">
+        <v>29.57</v>
+      </c>
       <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr">
         <is>
@@ -23892,6 +23924,6 @@
       <c r="M640" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest FCT.xlsx
+++ b/BackTest/2020-01-24 BackTest FCT.xlsx
@@ -10516,7 +10516,7 @@
         <v>-16618246.11894081</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-16472592.51904081</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-15822144.40623622</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-15898060.48269337</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-16049823.98329337</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-15939099.14669337</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-16124132.65579337</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-24489726.15139337</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-25512532.89189337</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-25507843.01513062</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-24938426.76809337</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-25167552.85650997</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-24766550.92064152</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-24621576.46291655</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-25090993.58310653</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-24342489.97290653</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-24977732.75690653</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-25139977.65150653</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-25358965.05860653</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-30244752.35300653</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-32874942.59050653</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-32896561.53520653</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-32777914.383942</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-32795727.87822116</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-32771650.92315131</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-32633361.30916137</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-32643217.98746137</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-32640699.05846137</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-32640699.05846137</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-32685772.20686137</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-32800047.99619377</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-32957201.57359377</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-32775810.99579376</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -19624,11 +19624,17 @@
         <v>-46333456.67468386</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
-      </c>
-      <c r="I583" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I583" t="n">
+        <v>28.5</v>
+      </c>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -19657,11 +19663,17 @@
         <v>-46320116.16898386</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
-      </c>
-      <c r="I584" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I584" t="n">
+        <v>28.33</v>
+      </c>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -19690,11 +19702,17 @@
         <v>-46318814.13048386</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
-      </c>
-      <c r="I585" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I585" t="n">
+        <v>28.4</v>
+      </c>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -19723,11 +19741,17 @@
         <v>-46309936.53858386</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
-      </c>
-      <c r="I586" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I586" t="n">
+        <v>28.59</v>
+      </c>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -19760,7 +19784,11 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -19797,7 +19825,7 @@
       <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L588" t="n">
@@ -20058,11 +20086,9 @@
         <v>-51852710.82953488</v>
       </c>
       <c r="H595" t="n">
-        <v>1</v>
-      </c>
-      <c r="I595" t="n">
-        <v>29.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr">
         <is>
@@ -20171,11 +20197,9 @@
         <v>-50113455.78443488</v>
       </c>
       <c r="H598" t="n">
-        <v>1</v>
-      </c>
-      <c r="I598" t="n">
-        <v>29.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr">
         <is>
@@ -20210,11 +20234,9 @@
         <v>-50106006.93033488</v>
       </c>
       <c r="H599" t="n">
-        <v>1</v>
-      </c>
-      <c r="I599" t="n">
-        <v>29.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr">
         <is>
@@ -20249,11 +20271,9 @@
         <v>-50105670.15609414</v>
       </c>
       <c r="H600" t="n">
-        <v>1</v>
-      </c>
-      <c r="I600" t="n">
-        <v>29.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr">
         <is>
@@ -20547,11 +20567,9 @@
         <v>-50281700.01797684</v>
       </c>
       <c r="H608" t="n">
-        <v>1</v>
-      </c>
-      <c r="I608" t="n">
-        <v>28.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr">
         <is>
@@ -20664,11 +20682,9 @@
         <v>-50210320.48317683</v>
       </c>
       <c r="H611" t="n">
-        <v>1</v>
-      </c>
-      <c r="I611" t="n">
-        <v>28.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr">
         <is>
@@ -20703,11 +20719,9 @@
         <v>-50211751.78317683</v>
       </c>
       <c r="H612" t="n">
-        <v>1</v>
-      </c>
-      <c r="I612" t="n">
-        <v>29.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr">
         <is>
@@ -20742,11 +20756,9 @@
         <v>-50211751.78317683</v>
       </c>
       <c r="H613" t="n">
-        <v>1</v>
-      </c>
-      <c r="I613" t="n">
-        <v>28.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr">
         <is>
@@ -21054,9 +21066,11 @@
         <v>-50265917.77147684</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
-      </c>
-      <c r="I621" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I621" t="n">
+        <v>29.1</v>
+      </c>
       <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr">
         <is>
@@ -21091,9 +21105,11 @@
         <v>-50265917.77147684</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
-      </c>
-      <c r="I622" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I622" t="n">
+        <v>29</v>
+      </c>
       <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr">
         <is>
@@ -21128,9 +21144,11 @@
         <v>-50185917.77147684</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
-      </c>
-      <c r="I623" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I623" t="n">
+        <v>29</v>
+      </c>
       <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr">
         <is>
@@ -21165,9 +21183,11 @@
         <v>-50185917.77147684</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
-      </c>
-      <c r="I624" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I624" t="n">
+        <v>29.57</v>
+      </c>
       <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr">
         <is>
@@ -21202,9 +21222,11 @@
         <v>-50187576.57147683</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
-      </c>
-      <c r="I625" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I625" t="n">
+        <v>29.57</v>
+      </c>
       <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr">
         <is>
@@ -21239,9 +21261,11 @@
         <v>-50186073.57147683</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
-      </c>
-      <c r="I626" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I626" t="n">
+        <v>29.4</v>
+      </c>
       <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr">
         <is>
@@ -21276,9 +21300,11 @@
         <v>-50187659.57147683</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
-      </c>
-      <c r="I627" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I627" t="n">
+        <v>29.5</v>
+      </c>
       <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr">
         <is>
@@ -21313,9 +21339,11 @@
         <v>-50240317.05917683</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
-      </c>
-      <c r="I628" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I628" t="n">
+        <v>29.49</v>
+      </c>
       <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr">
         <is>
@@ -21350,9 +21378,11 @@
         <v>-50240317.05917683</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
-      </c>
-      <c r="I629" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I629" t="n">
+        <v>29.4</v>
+      </c>
       <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr">
         <is>
@@ -21387,9 +21417,11 @@
         <v>-50245247.04127683</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
-      </c>
-      <c r="I630" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I630" t="n">
+        <v>29.4</v>
+      </c>
       <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr">
         <is>
@@ -21424,9 +21456,11 @@
         <v>-50246794.04127683</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
-      </c>
-      <c r="I631" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I631" t="n">
+        <v>29.3</v>
+      </c>
       <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr">
         <is>
@@ -21461,9 +21495,11 @@
         <v>-50241326.64127684</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
-      </c>
-      <c r="I632" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I632" t="n">
+        <v>29.1</v>
+      </c>
       <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr">
         <is>
@@ -21498,9 +21534,11 @@
         <v>-50242897.04127683</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
-      </c>
-      <c r="I633" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I633" t="n">
+        <v>29.2</v>
+      </c>
       <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr">
         <is>
@@ -21535,9 +21573,11 @@
         <v>-50242897.04127683</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
-      </c>
-      <c r="I634" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I634" t="n">
+        <v>29.19</v>
+      </c>
       <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr">
         <is>
@@ -21572,9 +21612,11 @@
         <v>-50240057.04127683</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
-      </c>
-      <c r="I635" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I635" t="n">
+        <v>29.19</v>
+      </c>
       <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr">
         <is>
@@ -21609,9 +21651,11 @@
         <v>-50240057.04127683</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
-      </c>
-      <c r="I636" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I636" t="n">
+        <v>29.2</v>
+      </c>
       <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr">
         <is>
@@ -21646,9 +21690,11 @@
         <v>-50240057.04127683</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
-      </c>
-      <c r="I637" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I637" t="n">
+        <v>29.2</v>
+      </c>
       <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr">
         <is>
@@ -21683,9 +21729,11 @@
         <v>-50240057.04127683</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
-      </c>
-      <c r="I638" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I638" t="n">
+        <v>29.2</v>
+      </c>
       <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr">
         <is>
@@ -21720,9 +21768,11 @@
         <v>-50242246.43497684</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
-      </c>
-      <c r="I639" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I639" t="n">
+        <v>29.2</v>
+      </c>
       <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr">
         <is>
@@ -21757,9 +21807,11 @@
         <v>-50240715.03497684</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
-      </c>
-      <c r="I640" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I640" t="n">
+        <v>28.97</v>
+      </c>
       <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr">
         <is>
